--- a/500all/speech_level/speeches_CHRG-114hhrg98573.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98573.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, good afternoon, everyone. I want to welcome you all to the Subcommittee on Economic Opportunity's hearing today entitled A Review of Higher Education Opportunities for the Newest Generation of Veterans.    VA's education and training programs have been credited with successfully transitioning and readjusting returning servicemembers for generations. And it has been reported that the post-World War II GI Bill educated ten million returning veterans, among them 14 Nobel Prize and 24 Pulitzer Prize winners, three presidents, a dozen senators, and three Supreme Court justices.    As an Iraq War veteran myself, I hope and expect that our current generation of veterans will match or exceed those numbers. And the best way to ensure the new greatest generation flourishes is to make sure that the almost $15 billion a year we spend on Post-9/11 GI Bill benefits is protected for future generations to come.    I would like to outline a few ways I think we can protect the GI Bill. First, we need to ensure that claims for benefits are processed accurately and efficiently. Students can't successfully complete a degree program if red tape and unnecessary delays impact payment of tuition, fees, and living stipends.    I was encouraged to learn that the VA already processes a good amount of education claims without the need of any human intervention and they do that with great accuracy. However, I am concerned that once again the President's budget did not request additional funds to finish the job and automate the processing of original claims as well. We must make some investments in this system to ensure benefits are delivered in a timely fashion.    Secondly, it has become clear to me and most in the veteran community that there simply have not been enough metrics to track the return on investment through student success. I am encouraged by the collaboration between VA and advocacy groups to promote the Million Records Project that, for the first time, tracks student success.    I look forward to hearing more today about the newest iteration of this project and other ways to track student outcomes.    The final way to protect the GI Bill is to require additional transparency on outcomes for students in schools. In that vein, I am also looking forward to hearing our witnesses' views on VA's Comparison Tool and Complaint System. I know that VA has completed these congressionally mandated tools on a shoestring budget and I am interested to hear more about their future plans for these programs.    As has been said before, in the end, it is up to the student to make the right choice and use their hard-earned benefits wisely. It is our job to ensure that they have the tools that they need to be successful and to make the right decisions, to help both themselves and their families.    I want to take a moment of personal privilege and welcome Mr. Terence Harrison from the University of Cincinnati. The University of Cincinnati has taken a lead role in providing the best services and benefits to student veterans and I want to personally thank Terence Harrison for being here today with us to talk about their success.    I would also like to take a minute to just mention that I joined the Army Reserves in 1998 and when I did, there was a young sergeant there who helped indoctrinate me to the military. This is someone who I gained great respect for and he was respected by all the members of our unit, a young man of great character and leadership. And I am not surprised that he sits here today.    So welcome, Mr. Harrison, and we look forward to hearing from you.    The Ranking Member is now here and if he is ready, I can recognize him for his opening remarks.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you.</t>
   </si>
   <si>
@@ -79,45 +73,30 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Harrison</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harrison. Thank you.    Good afternoon. I would like to thank you, Chairman Wenstrup, Ranking Member Takano, and Members of the Subcommittee on Economic Opportunity, for inviting me to participate in today's hearing on the Department of Veterans Affairs Administration and its education programs as well as the educational and training needs of our newest generation of veterans.    My name is Terence Harrison. I am the manager for Veterans Programs and Services at the University of Cincinnati.    The University of Cincinnati or UC is a public research university enrolling more than 43,600 undergraduate and graduate students in 2014. Our campus is made up of students from all 50 states and from 100 countries from around the world.    Recognized as a military friendly school, UC is both a leader and champion in military and veteran-related issues. Currently UC enrolls about 2,250 military affiliated students including active duty, members of the national guard and reserves, veterans and family members.    Of this total, 1,007 students are using GI Bill benefits, and this is of the 2014 semester. With anticipated drawn down of active-duty personnel, the University of Cincinnati is energetically positioning itself to accommodate these students.    UC adheres closely to the VA's principles of excellence and providing a high-quality educational experience tailored to the unique needs of veteran students. UC has instituted a number of resources and programs to best assist our youngest generation of veterans.    To assist veteran students with administrative needs on campus, UC has a centralized veterans' one-stop shop located in the same building as admissions and registration. With most of our student services for veterans in the same buildings, these students do not have to navigate a large campus to find the right offices to meet their needs.    To foster a sense of community and ensure a smooth transition to the civilian life, UC is home to the Ohio Beta Chapter of Omega Delta Sigma. This co-ed brethren-only fraternity has assisted countless veterans in their transition to the University of Cincinnati by providing social support and peer-to-peer mentoring.    Additionally, to assist prospective students and current recipients of the Post-9/11 GI Bill, we are pleased that the VA has developed a GI Bill Comparison Tool and a VA feedback system. This allows students to compare their benefits across institutions. It is a valuable tool.    To ensure that our veteran students continue to understand and best utilize their GI Bill benefits upon enrolling, UC has a vet success campus counselor here on our campus. This resource allows veterans to have any GI Bill-related questions answered in a timely manner. And UC is only one of three Ohio schools that have such a counselor.    To meet the medical needs of student veterans, UC's proximity to the VA hospital allows for students to quickly receive any required medical services. UC is a partner with the VA sponsored Veterans Integration to Academic Leadership Program or VITAL.    Veterans with psychological issues can meet with a VA clinical psychologist on campus or if they choose at the VA hospital. Additionally, the University of Cincinnati's Center of Psychological Services or CPS has a professionally trained and licensed staff that can address the needs of student veterans free of charge.    In addition to these campus-based services, UC remains on the cutting edge of interdisciplinary research and training that benefits the Nation's active-duty military, veterans and their families.    For instance, UC is participating in a joint study with the VA regarding the lingering effects of posttraumatic stress disorder. This ongoing study which opened in 2010 is charged with seeing which types of therapy would be beneficial to those veterans who experience PTSD.    UC also fosters strong partnerships with the military including the Center for Sustainment of Trauma and Readiness Skills or C-STARS, a joint training program between the Air Force and the University of Cincinnati Medical Center. C-STARS pairs both civilian Air Force medical professionals and trauma and critical care through simulation training.    UC is also an active participant in the Tri-State Vets Educational Group. This group is comprised of veteran representatives from nine universities and colleges across the region and meets quarterly to discuss best practices. Additionally, they develop programs that will improve the quality of life for the veterans on the respective campuses.    With regard to implementation of Section 701 of the Veterans Access, Choice, and Accountability Act of 2014, UC does not anticipate any obstacles in offering the Fry Scholarship to spouses of deceased or permanently disabled veterans. At UC, we currently have three students receiving the Fry Scholarship.    And as for implementing Section 702, UC has offered in-state tuition to all student veterans since 2009. Because the Ohio GI promises, all the veteran has to do is show proof of residency and the school will immediately grant in-state tuition.    One problem that is slowly eroding is that the veteran does not realize that they have to apply for residency and this has been a priority for us for years. And I encourage all schools seeking to meet the requirements to look to UC as an example.    So in closing, I want to thank you for allowing me to share the great work that the University of Cincinnati is doing to accommodate current and future veteran students and their families.    I look forward to working with you as you expand services for veteran students and, again, offer the University of Cincinnati as an example to inform policy and to guide schools in shaping their programs.    [The prepared statement of Terence Harrison appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Harrison.    Mr. Kelley, you are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>Kelley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kelley. Mr. Chairman, Ranking Member Takano, on behalf of the Veterans of Foreign Wars and our Auxiliaries, thanks for the opportunity to testify today.    Over the past few years, the VFW has worked with this subcommittee to provide college readiness and access, and safeguarding student veterans against fraud, waste, and abuse.    The VFW remains concerned that far too few veterans take advantage of their earned education benefits and the veterans who believe they were treated unfairly by higher education still lack the viable tools for swift intervention and adjudication.    Congress and VA have worked to make veterans educated consumers and provide them a consumer feedback system so complaints can be lodged and actions can be taken when necessary.    While these tools have provided significant assistance to student veterans, the VFW worries that all too often veterans use a Comparison Tool only after they have enrolled in school and that reviews of complaints logged in the consumer feedback system are not responded to in a timely manner.    Through VFW's One Student Veteran resource, we have worked with veterans who have questions or unresolved complaints with their education benefits. The vast majority of these inquiries are directed towards eligibility and paying for college.    However, the most concerning inquiries deal with VA benefit overpayment and debt collection. When an overpayment occurs, VA sends a notification of overpayment and provides a couple options for repayment. If the veteran is unable to make a timely repayment, his or her debt is sent to collections and VA will garnish payment until the debt is repaid.    To eliminate this stress, the VFW proposes presenting veterans with three options for repayment when they are notified of an overpayment. They can either elect to repay it immediately; arrange repayment over several months; or have their months of benefit eligibility reduced by the number of months that must be repaid. This will allow veterans some flexibility in repaying the debt without a fear of financial instability.    The Department of Defense was tasked with designing three voluntary track curricula for transitioning servicemembers to include the accessing higher education track. The education track has gone through several changes since its inception and is a significant improvement over past iterations.    The VFW remains concerned that many transitioning servicemembers will not have access to a classroom proctor discussion as part of TAP. As the VFW visits military installations, we continue to hear that small unit commanders are reluctant to allow junior servicemembers to participate in this program. This has a direct impact on those servicemembers who likely need the training the most,--those who are first-term enlisted servicemembers.    This is why the VFW supported last year's provision to make participation in the education track mandatory for college-bound transitioning servicemembers. However, this access problem cannot be solely through policy initiatives. It will likely take a major cultural shift within the military. That is why the VFW continues to advocate for transitional training throughout the military life cycle and ensuring veterans still have access to training and resources after leaving the military.    Only a few years ago, the VFW recognized that military life often precludes recently separating servicemembers and their dependents from satisfying strict residency and physical presence requirements for in-state tuition, thereby often hindering access to quality cost-effective education.    Erasing the in-state requirement for veterans and their dependents has been a top priority for the VFW and with the passage of VACAA, we are now moving closer to making that a reality. However, implementation of in-state tuition isn't without its road blocks. We need to ensure that states that are having trouble with implementation are granted the extension waiver. We also need to ensure that states also include eligible dependents in their implementation plan for in-state tuition.    Mr. Chairman, this concludes my testimony and I am happy to answer any questions you or the committee may have.    [The prepared statement of Raymond C. Kelley appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Kelley.    Mr. Neiweem, you are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>Neiweem</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neiweem. Thank you, Mr. Chairman.    Chairman Wenstrup, Ranking Member Takano, and distinguished Members of the subcommittee, on behalf of Iraq and Afghanistan Veterans of America and our nearly 400,000 members and supporters, thank you for the opportunity to share our views with you at today's hearing examining higher education opportunities for the newest generation of veterans.    IAVA is proud to have played a leading role in the fight for the Post-9/11 GI Bill helping to build a united front among veterans' organizations and a bipartisan consensus in Congress. Today preserving and defending this critical benefit remains a top priority for our organization and our members.    There are three overarching themes rolled into the topic of this hearing that stand out in the feedback we have received from IAVA members from across the country.    First, our members' feedback on the Post-9/11 GI Bill has been overwhelmingly positive. Recent survey data indicated that more than half of those surveyed or their dependents have used the Post-9/11 GI Bill and a majority reported a good or excellent experience in using the benefit.    However, more than one-third of those that have used the Post-9/11 GI Bill reported being impacted by late payments. In fact, many respondents reported delays with more than three payments. Student veterans often rely heavily or entirely on their education benefits to support themselves and even one missed or late payment can have a detrimental impact on their ability to focus on their academics.    To the VA's credit, nearly half of those who receive late payments did believe that VA assisted in quickly resolving their issues. It is encouraging to see VA stepping in quickly to fix errors and address these issues as they surface. However, late payments continue to occur and it is critical that VA take corrective action to eliminate these occurrences altogether.    IAVA's Rapid Response Referral Program or triple RP frequently assists Post-9/11 veterans who are experiencing issues such as these and we will continue to assist veterans and the VA as well in any way that we can. We appreciate VA's work in this area, but insist the department achieve consistent and timely delivery on this earned benefit.    Secondly, turning to on-campus support programs, it is important to recognize that servicemembers and veterans are among the most driven, disciplined, and motivated individuals, but transitioning from active-duty military to a college campus can be disorienting and frustrating, especially for those who have recently returned from one or more combat deployments.    Many colleges across the country have already created and maintain successful student veteran support operations. Rutgers University, for example, has five staff members solely dedicated to serving student vets. This staff supports the more than 1,000 veterans in the Rutgers system which has showed high academic retention rates.    The programs at colleges around the country we hear work the best typically share some common characteristics. One such feature of successful models incorporate the veteran peer-to-peer outreach support approach. Veteran alumni or student veteran leaders creating social networks often result in strong academic bonds among the student veteran cohort and support meaningful long-term connections that help them succeed in the future.    Congress, the private sector, and nonprofit organizations should continue to invest in promoting on-campus support programs for veterans attending college given that these programs have the potential to greatly increase veterans' chances for success both academically and in the workforce after graduation.    And, lastly, the VA complaint system. This system was developed to allow student veterans receiving GI Bill benefits to submit feedback or complaints in the event that they felt their school wasn't representing their best interest or they had a problem and that it did not comply with the principles of excellence required by President Obama's Executive Order 13607.    The system is currently structured so that VA receives a complaint through an automated intake mechanism. It then notifies both the school and the student that the complaint has been received. At that point, the VA acts as a sort of middle man until the complaint is or the issue is resolved.    Although the intake process is automated, the rest of the process is lax and inefficient. When a notification of a complaint is issued to a school, corrective action often takes weeks or months to resolve even common issues. Schools can generate wholly insufficient responses and then classify those responses as resolutions.    To sum up the scenario here, Mr. Chairman, there are currently more than 1,000 backlog complaints and the schools are driving the process. IAVA recommends that two actions occur to correct this.    The first is automate the entire process from front to back. The complaints when they are received, they need to be stored in the same central system so that it is centralized and it is easy to access.    And the second thing is VA needs to jump in the driver's seat and not let the schools drive this. We recommend they set the expectation that these complaints are resolved within two weeks. That way, we are not dealing with 30 days, 60 days or worse which we have seen now.    Mr. Chairman, thank you again for the opportunity to offer our views on this and we look forward to any questions you have.    [The prepared statement of Christopher Neiweem appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Neiweem.    Mr. Barker, you are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>Barker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barker. Chairman Wenstrup, Ranking Member Takano, and Members of the subcommittee, the National Association of Veterans' Program Administrators is pleased to be invited to provide comments this afternoon.    NAVPA is a nationally recognized nonprofit organization founded in 1975 by school certifying officials. Our organization represents close to 400 education institutions nationwide.    NAVPA recognizes the significant higher education opportunities that are afforded this generation of veterans. We are committed in partnership with the Department of Veteran Affairs to ensure the success of the programs that are funded.    A year ago, Student Veterans of America published the Million Records Project. One of the clear observations that emerged from the data in this study was the unique nontraditional education pathways that veterans take. Student veterans are more likely to transfer or change institutions and take longer than traditional college students to complete their education credentials. This makes defining success and measuring outcomes of veterans challenging.    The GI Bill Comparison Tool is an important breakthrough in providing information to potential student veterans. However, it has significant limitations. The graduation rate used in the tool is the Department of Education's metric based on the Integrated Post-Secondary Education Data System, iPEDS.    The iPEDS graduation cohort is limited to first-time, full-time students. Therefore, students who arrive on campus with transfer credits or start at one institution but graduate from another are unrepresented in the graduation rate.    Based on the American Council on Education's recommendations, servicemembers' and veterans' military transcripts are evaluated for transfer credit. If credit is awarded, the student will never be represented in the graduation cohort rate currently reported in the Comparison Tool.    Being mindful of the SVA's Million Records Project, the metric used in the GI Bill Comparison Tool does not account for the unique experience and enrollment patterns of student veterans, specifically the arrival on campus with credits from the military transcript and the high transfer rate between institutions, thus making the iPEDS graduation data not truly reflective of the efforts of the student veterans or the institutions providing their education.    Rather than the current graduation metric used in the Comparison Tool, course completion rates would be a better indicator of veteran students' success. While graduation rates are an important indicator, NAVPA believes that veterans deserve a more valid Comparison Tool which utilizes relevant data and metrics and urges Congress to ensure that the VA has adequate funding resources and time to develop such a tool.    NAVPA endorses the feedback system. We support the increased scrutiny by the VA for validated serious complaints including risk-based program reviews. We ask that the notification follow-up and the resolution process currently be improved.    Our membership reports that once they provided feedback for a complaint lodged against their school, resolution information is not currently being provided by the VA.    It is also worth noting that there are significant concerns that all complaints whether valid or invalid against institutions is available in the school's summary section of the Comparison Tool.    It is the position of NAVPA that only validated complaints be listed along with the summary of corrective actions taken.    The Veterans Access, Choice, and Accountability Act of 2014 is viewed by NAVPA as a significant commitment from our country to our most deserving population. Section 702 of the act requiring that all public institutions of learning that are participating in VA-approved programs charge in-state tuition and fees to covered individuals as described in the act is indeed supported by NAVPA membership.    NAVPA is concerned that the implementation date of July 1, 2015 may not allow all state governments to pass legislation that will bring their states into compliance with Section 702.    We understand that the VA is in the process of developing waiver criteria for states that are actively pursuing changes to become compliant. It is our position that waivers may create a situation of inequity between state institutions.    We respectfully request that this committee strongly consider House Resolution 475 which includes moving the implementation date for Section 702 to July 1, 2016.    And our membership would like to commend the Department of Veteran Affairs for their work in successfully implementing Section 701 of the Choice Act. Our member schools have reported that the implementation of Section 701 including transferring covered individuals from other VA education benefits to the Fry Scholar has been handled very well by the VA.    In closing, on behalf of the membership institutions of NAVPA, I thank you for the opportunity to discuss these important issues with the committee today.    [The prepared statement of Marc A. Barker appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Barker.    Now, Mr. Withrow, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>Withrow</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Withrow. Mr. Chairman, Members of the committee, thank you so very much for the opportunity to appear before you today. I am pleased to have this chance to discuss some of the programs that Peralta College has developed to assist veterans.    My name is Bill Withrow and I am a member of the Peralta Board of Trustees and I am also a veteran.    The Peralta district includes four colleges located on the east side of the San Francisco Bay and serves over 30,000 students. We take pride in supporting the educational needs of veterans through a comprehensive array of high-quality programs and services.    However, not all of them take advantage of the GI educational benefits. Given our low cost, many veterans choose not to use their educational benefits while attending our colleges, saving them for when they transfer to the more expensive four-year universities and the opportunity for postgraduate education.    But whether they are using their benefits or not, we still provide them with special assistance such as we provide up to six semester hours of credit for military education that can be used toward achieving an associate degree.    We work with veterans to waive out-of-state tuition. Veterans receive priority first-in-line registration for classes and access to certified counselors. We enroll all newly-arrived veterans in a one unit semester-long orientation to college course that introduces them to college life and connects them to the services available to help them succeed.    The Counseling Department offers transfer workshops to ease the transition, to ease the transition to four-year colleges and universities.    We have a one-stop business and career center that provides free employment services to job seekers and employers.    We provide space committed to veterans to allow them to interact and to relate to their peers. We also sponsor student clubs for veterans.    As you can see, we value our veterans and provide services to make their experience successful, but we have some suggestions on ways to improve the existing educational program.    First, there needs to be more recognition and support for remediation or developmental classes. I do understand that this is controversial, but over 70 percent of our students overall enrolling at the Peralta colleges need some level of developmental education to get up to speed to the college level standards.    Veterans benefits cover six hours for developmental courses that are noncredit. Quite frankly, more is needed. Many students, especially veterans who may have been out of school for awhile, need more than six hours to successfully take credit courses and gain the most out of them.    Second, we recommend and provide more institutions to resources for colleges to be able to support their veteran populations. We have established a dean of equity and student success at the district level to provide a centralized way of tracking the progress of veterans. Peralta is funding this position out of its own resources. We believe that the VA could and should assist with this type of institutional support.    Finally, we encourage the military services and the VA to provide more transition support for veterans who are discharged from active duty.    In summary, Mr. Chairman, I recently met with a number of our veteran students and I am pleased to find that they were very satisfied at the education that they were receiving, the administrative support and the counseling, and that they felt that they were receiving a solid base for their educational and career goals. Veterans education programs are an ultimate win-win; a win for the student, and a win for the regional economic engines.    Many of the certificate and workforce programs dovetail into the experiences the students have had in one of their services leading to rewarding careers such as auto technology, aviation engineering, and all of the allied health services.    As I mentioned at the start of my testimony, I served as a veteran. I am a retired naval officer with over 24 years on active duty. I took an oath at each promotion, up to, and including captain, to protect the interests of enlisted personnel. That carries over into my retirement. I am personally dedicated to the well-being of our veterans and Peralta shares that deep sentiment. We look forward to working with this Committee to provide the very best educational experiences for our nation's veterans. They have earned it.    [The prepared statement of William Withrow appears in the Appendix]</t>
   </si>
   <si>
@@ -217,9 +196,6 @@
     <t>412651</t>
   </si>
   <si>
-    <t>Ryan A. Costello</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman.    Thank you all for being here at this hearing to provide your recommendations on how to best improve higher education opportunities for our newer generation of veterans. I will also share with you, in having read the written testimony from each of you, that it is very substantive and I think very helpful as a policymaker in terms of not only understanding what programs are provided, but how we can go about making them better.    And I want to specifically reference for those of you who do have the written testimony here today. My question is for Mr. Kelley, but I would certainly invite everyone else to weigh in. And it is on page 4 of your testimony, the first full paragraph where you say--and this relates to the transition assistance program:    ``However, the VFW remains concerned that many transitioning service members will not have access to a classroom-proctored discussion as part of TAP. As the VFW visits military installations, we continue to hear that small unit commanders remain reluctant to allow junior transitioning service members to participate in TAP. Even though TAP is now a commander's program, the VFW believes that some military commanders still fail to take TAP seriously. In our visits to transition sites, this is not as much of an issue for mid-career service members or retirees. However, it has a direct impact on the transition of first-term enlisted service members, who likely need the training the most.''    My question is more oriented towards asking you, any of you, to share your observations on how we can make the TAP program more effective, given what you have identified as, at least your concerns, and maybe the challenges on how to make it more effective.</t>
   </si>
   <si>
@@ -238,9 +214,6 @@
     <t>412647</t>
   </si>
   <si>
-    <t>Kathleen M. Rice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Rice. Thank you, Mr. Chairman.    So I recently met with a group of veteran service organizations back in my district, back on Long Island and they raised a number of issues and I just want to see if these are things that you have experienced either at your school or in servicing the veterans who come to ask you for help.    The entitlement period that you can access these benefits, is that--it is my understanding that that is a 36-month entitlement period that they have to use the benefits during that time. Is there any way to extend that--I guess I will ask this to you, Mr. Harrison--in terms of--or whoever else thinks they might be able to do that--to take into consideration all the other, whether they are working part-time or full-time supporting their families, the levels of stress?</t>
   </si>
   <si>
@@ -307,12 +280,6 @@
     <t xml:space="preserve">    Dr. Wenstrup. Ms. Radewagen, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>412664</t>
-  </si>
-  <si>
-    <t>Aumua Amata Coleman Radewagen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Radewagen. Thank you, Mr. Chairman.    I, too, want to thank all of you for being with us here today. My question is for all of you: Can you please discuss the most common barriers to success that student veterans encounter and what can be done to help students overcome these student barriers, especially those student veterans living in remote areas such as American Samoa, attending a local community college.    We don't have a local VA benefits counselor that can help them navigate these barriers. A benefit counselor comes from Hawaii maybe once a month or every couple months, depending on their availability, to help our veterans answer benefits questions. That is not adequate support for our veterans who are geographically and economically isolated and who live 2500 miles due south of Hawaii.</t>
   </si>
   <si>
@@ -346,9 +313,6 @@
     <t>412318</t>
   </si>
   <si>
-    <t>Dina Titus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you. Thank you all for being here. I am a long-time professor at UNLV, and often have veterans in my classes, and appreciate what they bring to that setting, and to the university.    I know at last Congress we addressed the question of out-of-state tuition. Some of the states already allowed veterans to pay in-state tuition and then that made it nationally, but if we didn't include those from Samoa, we should certainly go back and take a look at that.    Also I was just going to say that I completely agree with the Ranking Member's concern about taking remedial courses and being brought up to speed so that you can succeed once you start taking the regular course work or whatever major you choose.    One of things that has been pointed out to me is the problem with the housing benefit. If you go to college and start your housing benefit when you are taking the remedial course, it will run out before you finish taking the whole degree program, so we ought to look at that benefit as it connects with the GI Bill and I look forward to working with you on that. We have had several conversations about that.    Another thing is the Student Veterans Association at UNLV is a great resource, I work with them often. And one of the things that they brought to my attention is the problem with the need for childcare, especially women veterans going back to school and do not have any access to childcare. Many universities do not provide it on the campus, and the GI Bill does not give you any benefit.    So I am trying to look for ways that we can perhaps do some benefit for childcare while you are in school. And I wondered if you all would work with me on that, if you have any suggestions, if you think that this is a worthwhile way to go, if you have heard about yourselves on your campuses. We can start with Mr. Neiweem and whoever might want to weigh in, I would appreciate it.</t>
   </si>
   <si>
@@ -376,9 +340,6 @@
     <t xml:space="preserve">    Dr. Wenstrup. Thank you. I want to thank you all for being here today, not only for the information that you brought, but the information that you shared with us in responding to our questions. Your dedication to our veterans, of course, is greatly appreciated.    We will excuse this panel at this time. We have been called to vote, so for the second panel, General Worley, we will come back in probably about 35 minutes or so, and resume. Again I want to thank you all for being here today with us.    I now invite our second and final panel to the witness table. Joining us Major General Robert Worley, director of VA's education service. I want to thank you for being with us today, I really do. And for many years of service in uniform in the Air Force. And I look forward to hearing from you. You are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>Worley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Worley. Good afternoon, Chairman Wenstrup, Ranking Member Takano, and other distinguished Members of the subcommittee.    I am pleased to be here today to discuss the Department of Veterans Affairs education benefit programs and our ongoing efforts to ensure education benefits are administered appropriately and accurately.    My testimony will highlight the status of our implementation of the President's Executive Order, 13607, Public Law 112-249, and Sections 701 and 702 of the Choice Act. I will also touch on VA's information technology systems supporting our education programs.    VA's education programs provide education and training benefits to eligible Service members, Veterans, dependents, and survivors. These programs are designed to assist Veterans in readjusting to civilian life, to help the armed forces both recruit and retain members, and enhance the nation's economic competitiveness.    The Post-9/11 GI Bill, or Chapter 33, greatly expanded education benefits with the enactment of Public Law 110-252, effective August 1st, 2009. This program provides Veterans, Service members, dependents, and survivors with educational assistance in the form of tuition and fees, a housing allowance, and a books and supplies stipend to assist them in reaching their educational and vocational goals. The Post-9/11 GI Bill is by far the most utilized of VA's education programs.    Since the program began, VA has issued approximately $50 billion in benefits to 1.4 million individuals and their educational institutions. The other education benefit programs VA administers have been fairly consistent or have experienced reductions in recent years as measured by numbers of trainees and dollars issued.    The Executive Order on Principles of Excellence and Public Law 112-249 on improving transparency of educational opportunities were both intended to strengthen oversight, enforcement, and accountability within the Veteran and military educational benefit programs, as well as improve outreach and transparency to Veterans and Service members by providing information on educational institutions.    These important efforts were implemented through a strong and effective inter-agency collaboration between VA, the Department of Defense, and the Department of Education, in consultation with the Department of Justice, the Consumer Financial Protection Bureau, and the National Association of State Approving Agencies. Over 6,100 campuses have voluntarily agreed to comply with the Principles of Excellence.    Much has been accomplished through this work to both better inform and better protect Veterans and family members using educational benefits including: Registering as a Trademark the term ``GI Bill;'' development of a financial aid shopping sheet; development of Veteran outcome measures, and implementation of a centralized complaint system.    Further, as a result of these efforts, VA launched an online vocational and academic assessment tool called Career Scope, as well as the GI Bill Comparison Tool, which enables prospective students to compare educational institutions using key measures of affordability and value through access to school performance information and consumer protection information. As of March 4th, 2015, there have been over 846,000 unique visitors and over one million page views.    Section 701 of the Choice Act expands the Fry Scholarship to include surviving spouses of service members who died in the line of duty on or after September 11th, of 2001. VA began accepting applications for this extended benefit on November 3rd, of 2014, and as of March 2nd, VA has received 805 applications.    Section 702 of the Choice Act requires VA to disapprove educational programs under the Post-9/11 GI Bill and the Montgomery GI Bill Active Duty at public institutions if they charge covered individuals tuition or fees in excess of resident rates for terms beginning after July 1, 2015. In late October 2014, VA sent a letter to all the Governors outlining these requirements and requesting information on the state's ability to meet requirements in advance of July 1st.    All states and territories have indicated a commitment to comply with the law and are in various stages of either legislative or policy development and approval. VA has provided extensive technical assistance to numerous states and is working in close partnership with the state approving agencies to facilitate timely compliance with this law.    The Long-Term Solution is the Post-9/11 GI Bill Claims Processing Solution. In September 2012, VA implemented end-to-end automation of supplemental Post-9/11 GI Bill Claims. This was a game changer. In Fiscal Year 2014, 51 percent of all Post-9/11 GI Bill supplemental claims were fully automated and another 30 percent were partially automated. As a result, original claims processing timeliness has improved from 30.5 days in Fiscal Year 2012 to 17 days in Fiscal Year 2014. And supplemental processing timeliness has improved from 16.5 days to six days in 2014.    Veterans' hard earned educational benefits are the vehicle by which many of our nation's heroes pursue their career goals and successfully transition to civilian life. VA is fully committed to ensuring timely access and delivery of these benefits and to ensuring Veterans are well-informed decision makers concerning the use of these benefits.    Mr. Chairman, this concludes my statement, and I look forward to your questions.    [The prepared statement of Robert Worley appears in the Appendix]</t>
   </si>
   <si>
@@ -433,9 +394,6 @@
     <t xml:space="preserve">    Mr. Worley. That is my understanding.</t>
   </si>
   <si>
-    <t>Wenstrup [contuning]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup [contuning]. That would make a difference for them. Now, what plans does the VA have in place to finish the Long-Term Solution and finally get all original claims fully automated? How is that going at this point, do you think?</t>
   </si>
   <si>
@@ -458,9 +416,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Takano. It says when will you begin risk----</t>
-  </si>
-  <si>
-    <t>Takano [contuning]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Takano [contuning]. Based program reviews?</t>
@@ -943,11 +898,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -967,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -995,11 +946,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1019,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1047,11 +994,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1071,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1099,11 +1042,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1123,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1151,11 +1090,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1175,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1203,11 +1138,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1227,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1255,11 +1186,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1279,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1307,11 +1234,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1331,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1359,11 +1282,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1383,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1411,11 +1330,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1435,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>33</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1463,11 +1378,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1487,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1515,11 +1426,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1539,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1567,11 +1474,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1591,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1617,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1643,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1669,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1695,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1721,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1747,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1773,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1799,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1825,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1851,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1877,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1903,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1929,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1955,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1981,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2007,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2033,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2059,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2087,11 +1954,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2111,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2137,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2163,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2189,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2217,11 +2074,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2241,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2267,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2293,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2319,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2345,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2371,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2397,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2423,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2449,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
         <v>74</v>
-      </c>
-      <c r="H60" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2475,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2501,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2527,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2553,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2579,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2605,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2631,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2657,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2683,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2709,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2735,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2761,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
-      </c>
-      <c r="G72" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2789,11 +2602,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2813,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>97</v>
-      </c>
-      <c r="G74" t="s">
-        <v>98</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2839,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2865,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2891,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
-      </c>
-      <c r="G77" t="s">
-        <v>98</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2917,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2943,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2969,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>97</v>
-      </c>
-      <c r="G80" t="s">
-        <v>98</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2995,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3021,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" t="s">
-        <v>98</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3049,11 +2842,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3073,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>109</v>
-      </c>
-      <c r="G84" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3099,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3125,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3151,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3177,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3203,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3229,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3255,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
-      </c>
-      <c r="G91" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3283,11 +3058,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3307,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3335,11 +3106,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3359,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3387,11 +3154,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3411,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3439,11 +3202,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3463,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3491,11 +3250,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3515,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3543,11 +3298,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3567,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3595,11 +3346,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3619,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>120</v>
-      </c>
-      <c r="H105" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3647,11 +3394,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3671,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3699,11 +3442,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3723,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3751,11 +3490,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3775,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3801,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>139</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3827,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3855,11 +3586,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3879,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3905,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3931,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3957,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3983,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4009,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4035,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>148</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4061,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4087,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4113,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4139,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4165,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4191,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4217,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4243,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4271,11 +3970,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4295,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4323,11 +4018,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4347,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4375,11 +4066,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4399,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4427,11 +4114,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4451,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4479,11 +4162,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4503,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4531,11 +4210,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4555,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4583,11 +4258,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4607,13 +4280,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4635,11 +4306,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4659,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4685,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>120</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4711,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4739,11 +4402,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98573.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98573.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, good afternoon, everyone. I want to welcome you all to the Subcommittee on Economic Opportunity's hearing today entitled A Review of Higher Education Opportunities for the Newest Generation of Veterans.    VA's education and training programs have been credited with successfully transitioning and readjusting returning servicemembers for generations. And it has been reported that the post-World War II GI Bill educated ten million returning veterans, among them 14 Nobel Prize and 24 Pulitzer Prize winners, three presidents, a dozen senators, and three Supreme Court justices.    As an Iraq War veteran myself, I hope and expect that our current generation of veterans will match or exceed those numbers. And the best way to ensure the new greatest generation flourishes is to make sure that the almost $15 billion a year we spend on Post-9/11 GI Bill benefits is protected for future generations to come.    I would like to outline a few ways I think we can protect the GI Bill. First, we need to ensure that claims for benefits are processed accurately and efficiently. Students can't successfully complete a degree program if red tape and unnecessary delays impact payment of tuition, fees, and living stipends.    I was encouraged to learn that the VA already processes a good amount of education claims without the need of any human intervention and they do that with great accuracy. However, I am concerned that once again the President's budget did not request additional funds to finish the job and automate the processing of original claims as well. We must make some investments in this system to ensure benefits are delivered in a timely fashion.    Secondly, it has become clear to me and most in the veteran community that there simply have not been enough metrics to track the return on investment through student success. I am encouraged by the collaboration between VA and advocacy groups to promote the Million Records Project that, for the first time, tracks student success.    I look forward to hearing more today about the newest iteration of this project and other ways to track student outcomes.    The final way to protect the GI Bill is to require additional transparency on outcomes for students in schools. In that vein, I am also looking forward to hearing our witnesses' views on VA's Comparison Tool and Complaint System. I know that VA has completed these congressionally mandated tools on a shoestring budget and I am interested to hear more about their future plans for these programs.    As has been said before, in the end, it is up to the student to make the right choice and use their hard-earned benefits wisely. It is our job to ensure that they have the tools that they need to be successful and to make the right decisions, to help both themselves and their families.    I want to take a moment of personal privilege and welcome Mr. Terence Harrison from the University of Cincinnati. The University of Cincinnati has taken a lead role in providing the best services and benefits to student veterans and I want to personally thank Terence Harrison for being here today with us to talk about their success.    I would also like to take a minute to just mention that I joined the Army Reserves in 1998 and when I did, there was a young sergeant there who helped indoctrinate me to the military. This is someone who I gained great respect for and he was respected by all the members of our unit, a young man of great character and leadership. And I am not surprised that he sits here today.    So welcome, Mr. Harrison, and we look forward to hearing from you.    The Ranking Member is now here and if he is ready, I can recognize him for his opening remarks.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you.</t>
   </si>
   <si>
@@ -73,30 +88,45 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Harrison</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harrison. Thank you.    Good afternoon. I would like to thank you, Chairman Wenstrup, Ranking Member Takano, and Members of the Subcommittee on Economic Opportunity, for inviting me to participate in today's hearing on the Department of Veterans Affairs Administration and its education programs as well as the educational and training needs of our newest generation of veterans.    My name is Terence Harrison. I am the manager for Veterans Programs and Services at the University of Cincinnati.    The University of Cincinnati or UC is a public research university enrolling more than 43,600 undergraduate and graduate students in 2014. Our campus is made up of students from all 50 states and from 100 countries from around the world.    Recognized as a military friendly school, UC is both a leader and champion in military and veteran-related issues. Currently UC enrolls about 2,250 military affiliated students including active duty, members of the national guard and reserves, veterans and family members.    Of this total, 1,007 students are using GI Bill benefits, and this is of the 2014 semester. With anticipated drawn down of active-duty personnel, the University of Cincinnati is energetically positioning itself to accommodate these students.    UC adheres closely to the VA's principles of excellence and providing a high-quality educational experience tailored to the unique needs of veteran students. UC has instituted a number of resources and programs to best assist our youngest generation of veterans.    To assist veteran students with administrative needs on campus, UC has a centralized veterans' one-stop shop located in the same building as admissions and registration. With most of our student services for veterans in the same buildings, these students do not have to navigate a large campus to find the right offices to meet their needs.    To foster a sense of community and ensure a smooth transition to the civilian life, UC is home to the Ohio Beta Chapter of Omega Delta Sigma. This co-ed brethren-only fraternity has assisted countless veterans in their transition to the University of Cincinnati by providing social support and peer-to-peer mentoring.    Additionally, to assist prospective students and current recipients of the Post-9/11 GI Bill, we are pleased that the VA has developed a GI Bill Comparison Tool and a VA feedback system. This allows students to compare their benefits across institutions. It is a valuable tool.    To ensure that our veteran students continue to understand and best utilize their GI Bill benefits upon enrolling, UC has a vet success campus counselor here on our campus. This resource allows veterans to have any GI Bill-related questions answered in a timely manner. And UC is only one of three Ohio schools that have such a counselor.    To meet the medical needs of student veterans, UC's proximity to the VA hospital allows for students to quickly receive any required medical services. UC is a partner with the VA sponsored Veterans Integration to Academic Leadership Program or VITAL.    Veterans with psychological issues can meet with a VA clinical psychologist on campus or if they choose at the VA hospital. Additionally, the University of Cincinnati's Center of Psychological Services or CPS has a professionally trained and licensed staff that can address the needs of student veterans free of charge.    In addition to these campus-based services, UC remains on the cutting edge of interdisciplinary research and training that benefits the Nation's active-duty military, veterans and their families.    For instance, UC is participating in a joint study with the VA regarding the lingering effects of posttraumatic stress disorder. This ongoing study which opened in 2010 is charged with seeing which types of therapy would be beneficial to those veterans who experience PTSD.    UC also fosters strong partnerships with the military including the Center for Sustainment of Trauma and Readiness Skills or C-STARS, a joint training program between the Air Force and the University of Cincinnati Medical Center. C-STARS pairs both civilian Air Force medical professionals and trauma and critical care through simulation training.    UC is also an active participant in the Tri-State Vets Educational Group. This group is comprised of veteran representatives from nine universities and colleges across the region and meets quarterly to discuss best practices. Additionally, they develop programs that will improve the quality of life for the veterans on the respective campuses.    With regard to implementation of Section 701 of the Veterans Access, Choice, and Accountability Act of 2014, UC does not anticipate any obstacles in offering the Fry Scholarship to spouses of deceased or permanently disabled veterans. At UC, we currently have three students receiving the Fry Scholarship.    And as for implementing Section 702, UC has offered in-state tuition to all student veterans since 2009. Because the Ohio GI promises, all the veteran has to do is show proof of residency and the school will immediately grant in-state tuition.    One problem that is slowly eroding is that the veteran does not realize that they have to apply for residency and this has been a priority for us for years. And I encourage all schools seeking to meet the requirements to look to UC as an example.    So in closing, I want to thank you for allowing me to share the great work that the University of Cincinnati is doing to accommodate current and future veteran students and their families.    I look forward to working with you as you expand services for veteran students and, again, offer the University of Cincinnati as an example to inform policy and to guide schools in shaping their programs.    [The prepared statement of Terence Harrison appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Harrison.    Mr. Kelley, you are now recognized for five minutes.</t>
   </si>
   <si>
+    <t>Kelley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kelley. Mr. Chairman, Ranking Member Takano, on behalf of the Veterans of Foreign Wars and our Auxiliaries, thanks for the opportunity to testify today.    Over the past few years, the VFW has worked with this subcommittee to provide college readiness and access, and safeguarding student veterans against fraud, waste, and abuse.    The VFW remains concerned that far too few veterans take advantage of their earned education benefits and the veterans who believe they were treated unfairly by higher education still lack the viable tools for swift intervention and adjudication.    Congress and VA have worked to make veterans educated consumers and provide them a consumer feedback system so complaints can be lodged and actions can be taken when necessary.    While these tools have provided significant assistance to student veterans, the VFW worries that all too often veterans use a Comparison Tool only after they have enrolled in school and that reviews of complaints logged in the consumer feedback system are not responded to in a timely manner.    Through VFW's One Student Veteran resource, we have worked with veterans who have questions or unresolved complaints with their education benefits. The vast majority of these inquiries are directed towards eligibility and paying for college.    However, the most concerning inquiries deal with VA benefit overpayment and debt collection. When an overpayment occurs, VA sends a notification of overpayment and provides a couple options for repayment. If the veteran is unable to make a timely repayment, his or her debt is sent to collections and VA will garnish payment until the debt is repaid.    To eliminate this stress, the VFW proposes presenting veterans with three options for repayment when they are notified of an overpayment. They can either elect to repay it immediately; arrange repayment over several months; or have their months of benefit eligibility reduced by the number of months that must be repaid. This will allow veterans some flexibility in repaying the debt without a fear of financial instability.    The Department of Defense was tasked with designing three voluntary track curricula for transitioning servicemembers to include the accessing higher education track. The education track has gone through several changes since its inception and is a significant improvement over past iterations.    The VFW remains concerned that many transitioning servicemembers will not have access to a classroom proctor discussion as part of TAP. As the VFW visits military installations, we continue to hear that small unit commanders are reluctant to allow junior servicemembers to participate in this program. This has a direct impact on those servicemembers who likely need the training the most,--those who are first-term enlisted servicemembers.    This is why the VFW supported last year's provision to make participation in the education track mandatory for college-bound transitioning servicemembers. However, this access problem cannot be solely through policy initiatives. It will likely take a major cultural shift within the military. That is why the VFW continues to advocate for transitional training throughout the military life cycle and ensuring veterans still have access to training and resources after leaving the military.    Only a few years ago, the VFW recognized that military life often precludes recently separating servicemembers and their dependents from satisfying strict residency and physical presence requirements for in-state tuition, thereby often hindering access to quality cost-effective education.    Erasing the in-state requirement for veterans and their dependents has been a top priority for the VFW and with the passage of VACAA, we are now moving closer to making that a reality. However, implementation of in-state tuition isn't without its road blocks. We need to ensure that states that are having trouble with implementation are granted the extension waiver. We also need to ensure that states also include eligible dependents in their implementation plan for in-state tuition.    Mr. Chairman, this concludes my testimony and I am happy to answer any questions you or the committee may have.    [The prepared statement of Raymond C. Kelley appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Kelley.    Mr. Neiweem, you are now recognized for five minutes.</t>
   </si>
   <si>
+    <t>Neiweem</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Neiweem. Thank you, Mr. Chairman.    Chairman Wenstrup, Ranking Member Takano, and distinguished Members of the subcommittee, on behalf of Iraq and Afghanistan Veterans of America and our nearly 400,000 members and supporters, thank you for the opportunity to share our views with you at today's hearing examining higher education opportunities for the newest generation of veterans.    IAVA is proud to have played a leading role in the fight for the Post-9/11 GI Bill helping to build a united front among veterans' organizations and a bipartisan consensus in Congress. Today preserving and defending this critical benefit remains a top priority for our organization and our members.    There are three overarching themes rolled into the topic of this hearing that stand out in the feedback we have received from IAVA members from across the country.    First, our members' feedback on the Post-9/11 GI Bill has been overwhelmingly positive. Recent survey data indicated that more than half of those surveyed or their dependents have used the Post-9/11 GI Bill and a majority reported a good or excellent experience in using the benefit.    However, more than one-third of those that have used the Post-9/11 GI Bill reported being impacted by late payments. In fact, many respondents reported delays with more than three payments. Student veterans often rely heavily or entirely on their education benefits to support themselves and even one missed or late payment can have a detrimental impact on their ability to focus on their academics.    To the VA's credit, nearly half of those who receive late payments did believe that VA assisted in quickly resolving their issues. It is encouraging to see VA stepping in quickly to fix errors and address these issues as they surface. However, late payments continue to occur and it is critical that VA take corrective action to eliminate these occurrences altogether.    IAVA's Rapid Response Referral Program or triple RP frequently assists Post-9/11 veterans who are experiencing issues such as these and we will continue to assist veterans and the VA as well in any way that we can. We appreciate VA's work in this area, but insist the department achieve consistent and timely delivery on this earned benefit.    Secondly, turning to on-campus support programs, it is important to recognize that servicemembers and veterans are among the most driven, disciplined, and motivated individuals, but transitioning from active-duty military to a college campus can be disorienting and frustrating, especially for those who have recently returned from one or more combat deployments.    Many colleges across the country have already created and maintain successful student veteran support operations. Rutgers University, for example, has five staff members solely dedicated to serving student vets. This staff supports the more than 1,000 veterans in the Rutgers system which has showed high academic retention rates.    The programs at colleges around the country we hear work the best typically share some common characteristics. One such feature of successful models incorporate the veteran peer-to-peer outreach support approach. Veteran alumni or student veteran leaders creating social networks often result in strong academic bonds among the student veteran cohort and support meaningful long-term connections that help them succeed in the future.    Congress, the private sector, and nonprofit organizations should continue to invest in promoting on-campus support programs for veterans attending college given that these programs have the potential to greatly increase veterans' chances for success both academically and in the workforce after graduation.    And, lastly, the VA complaint system. This system was developed to allow student veterans receiving GI Bill benefits to submit feedback or complaints in the event that they felt their school wasn't representing their best interest or they had a problem and that it did not comply with the principles of excellence required by President Obama's Executive Order 13607.    The system is currently structured so that VA receives a complaint through an automated intake mechanism. It then notifies both the school and the student that the complaint has been received. At that point, the VA acts as a sort of middle man until the complaint is or the issue is resolved.    Although the intake process is automated, the rest of the process is lax and inefficient. When a notification of a complaint is issued to a school, corrective action often takes weeks or months to resolve even common issues. Schools can generate wholly insufficient responses and then classify those responses as resolutions.    To sum up the scenario here, Mr. Chairman, there are currently more than 1,000 backlog complaints and the schools are driving the process. IAVA recommends that two actions occur to correct this.    The first is automate the entire process from front to back. The complaints when they are received, they need to be stored in the same central system so that it is centralized and it is easy to access.    And the second thing is VA needs to jump in the driver's seat and not let the schools drive this. We recommend they set the expectation that these complaints are resolved within two weeks. That way, we are not dealing with 30 days, 60 days or worse which we have seen now.    Mr. Chairman, thank you again for the opportunity to offer our views on this and we look forward to any questions you have.    [The prepared statement of Christopher Neiweem appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Neiweem.    Mr. Barker, you are now recognized for five minutes.</t>
   </si>
   <si>
+    <t>Barker</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barker. Chairman Wenstrup, Ranking Member Takano, and Members of the subcommittee, the National Association of Veterans' Program Administrators is pleased to be invited to provide comments this afternoon.    NAVPA is a nationally recognized nonprofit organization founded in 1975 by school certifying officials. Our organization represents close to 400 education institutions nationwide.    NAVPA recognizes the significant higher education opportunities that are afforded this generation of veterans. We are committed in partnership with the Department of Veteran Affairs to ensure the success of the programs that are funded.    A year ago, Student Veterans of America published the Million Records Project. One of the clear observations that emerged from the data in this study was the unique nontraditional education pathways that veterans take. Student veterans are more likely to transfer or change institutions and take longer than traditional college students to complete their education credentials. This makes defining success and measuring outcomes of veterans challenging.    The GI Bill Comparison Tool is an important breakthrough in providing information to potential student veterans. However, it has significant limitations. The graduation rate used in the tool is the Department of Education's metric based on the Integrated Post-Secondary Education Data System, iPEDS.    The iPEDS graduation cohort is limited to first-time, full-time students. Therefore, students who arrive on campus with transfer credits or start at one institution but graduate from another are unrepresented in the graduation rate.    Based on the American Council on Education's recommendations, servicemembers' and veterans' military transcripts are evaluated for transfer credit. If credit is awarded, the student will never be represented in the graduation cohort rate currently reported in the Comparison Tool.    Being mindful of the SVA's Million Records Project, the metric used in the GI Bill Comparison Tool does not account for the unique experience and enrollment patterns of student veterans, specifically the arrival on campus with credits from the military transcript and the high transfer rate between institutions, thus making the iPEDS graduation data not truly reflective of the efforts of the student veterans or the institutions providing their education.    Rather than the current graduation metric used in the Comparison Tool, course completion rates would be a better indicator of veteran students' success. While graduation rates are an important indicator, NAVPA believes that veterans deserve a more valid Comparison Tool which utilizes relevant data and metrics and urges Congress to ensure that the VA has adequate funding resources and time to develop such a tool.    NAVPA endorses the feedback system. We support the increased scrutiny by the VA for validated serious complaints including risk-based program reviews. We ask that the notification follow-up and the resolution process currently be improved.    Our membership reports that once they provided feedback for a complaint lodged against their school, resolution information is not currently being provided by the VA.    It is also worth noting that there are significant concerns that all complaints whether valid or invalid against institutions is available in the school's summary section of the Comparison Tool.    It is the position of NAVPA that only validated complaints be listed along with the summary of corrective actions taken.    The Veterans Access, Choice, and Accountability Act of 2014 is viewed by NAVPA as a significant commitment from our country to our most deserving population. Section 702 of the act requiring that all public institutions of learning that are participating in VA-approved programs charge in-state tuition and fees to covered individuals as described in the act is indeed supported by NAVPA membership.    NAVPA is concerned that the implementation date of July 1, 2015 may not allow all state governments to pass legislation that will bring their states into compliance with Section 702.    We understand that the VA is in the process of developing waiver criteria for states that are actively pursuing changes to become compliant. It is our position that waivers may create a situation of inequity between state institutions.    We respectfully request that this committee strongly consider House Resolution 475 which includes moving the implementation date for Section 702 to July 1, 2016.    And our membership would like to commend the Department of Veteran Affairs for their work in successfully implementing Section 701 of the Choice Act. Our member schools have reported that the implementation of Section 701 including transferring covered individuals from other VA education benefits to the Fry Scholar has been handled very well by the VA.    In closing, on behalf of the membership institutions of NAVPA, I thank you for the opportunity to discuss these important issues with the committee today.    [The prepared statement of Marc A. Barker appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Barker.    Now, Mr. Withrow, you are recognized for five minutes.</t>
   </si>
   <si>
+    <t>Withrow</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Withrow. Mr. Chairman, Members of the committee, thank you so very much for the opportunity to appear before you today. I am pleased to have this chance to discuss some of the programs that Peralta College has developed to assist veterans.    My name is Bill Withrow and I am a member of the Peralta Board of Trustees and I am also a veteran.    The Peralta district includes four colleges located on the east side of the San Francisco Bay and serves over 30,000 students. We take pride in supporting the educational needs of veterans through a comprehensive array of high-quality programs and services.    However, not all of them take advantage of the GI educational benefits. Given our low cost, many veterans choose not to use their educational benefits while attending our colleges, saving them for when they transfer to the more expensive four-year universities and the opportunity for postgraduate education.    But whether they are using their benefits or not, we still provide them with special assistance such as we provide up to six semester hours of credit for military education that can be used toward achieving an associate degree.    We work with veterans to waive out-of-state tuition. Veterans receive priority first-in-line registration for classes and access to certified counselors. We enroll all newly-arrived veterans in a one unit semester-long orientation to college course that introduces them to college life and connects them to the services available to help them succeed.    The Counseling Department offers transfer workshops to ease the transition, to ease the transition to four-year colleges and universities.    We have a one-stop business and career center that provides free employment services to job seekers and employers.    We provide space committed to veterans to allow them to interact and to relate to their peers. We also sponsor student clubs for veterans.    As you can see, we value our veterans and provide services to make their experience successful, but we have some suggestions on ways to improve the existing educational program.    First, there needs to be more recognition and support for remediation or developmental classes. I do understand that this is controversial, but over 70 percent of our students overall enrolling at the Peralta colleges need some level of developmental education to get up to speed to the college level standards.    Veterans benefits cover six hours for developmental courses that are noncredit. Quite frankly, more is needed. Many students, especially veterans who may have been out of school for awhile, need more than six hours to successfully take credit courses and gain the most out of them.    Second, we recommend and provide more institutions to resources for colleges to be able to support their veteran populations. We have established a dean of equity and student success at the district level to provide a centralized way of tracking the progress of veterans. Peralta is funding this position out of its own resources. We believe that the VA could and should assist with this type of institutional support.    Finally, we encourage the military services and the VA to provide more transition support for veterans who are discharged from active duty.    In summary, Mr. Chairman, I recently met with a number of our veteran students and I am pleased to find that they were very satisfied at the education that they were receiving, the administrative support and the counseling, and that they felt that they were receiving a solid base for their educational and career goals. Veterans education programs are an ultimate win-win; a win for the student, and a win for the regional economic engines.    Many of the certificate and workforce programs dovetail into the experiences the students have had in one of their services leading to rewarding careers such as auto technology, aviation engineering, and all of the allied health services.    As I mentioned at the start of my testimony, I served as a veteran. I am a retired naval officer with over 24 years on active duty. I took an oath at each promotion, up to, and including captain, to protect the interests of enlisted personnel. That carries over into my retirement. I am personally dedicated to the well-being of our veterans and Peralta shares that deep sentiment. We look forward to working with this Committee to provide the very best educational experiences for our nation's veterans. They have earned it.    [The prepared statement of William Withrow appears in the Appendix]</t>
   </si>
   <si>
@@ -196,6 +226,12 @@
     <t>412651</t>
   </si>
   <si>
+    <t>Costello</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman.    Thank you all for being here at this hearing to provide your recommendations on how to best improve higher education opportunities for our newer generation of veterans. I will also share with you, in having read the written testimony from each of you, that it is very substantive and I think very helpful as a policymaker in terms of not only understanding what programs are provided, but how we can go about making them better.    And I want to specifically reference for those of you who do have the written testimony here today. My question is for Mr. Kelley, but I would certainly invite everyone else to weigh in. And it is on page 4 of your testimony, the first full paragraph where you say--and this relates to the transition assistance program:    ``However, the VFW remains concerned that many transitioning service members will not have access to a classroom-proctored discussion as part of TAP. As the VFW visits military installations, we continue to hear that small unit commanders remain reluctant to allow junior transitioning service members to participate in TAP. Even though TAP is now a commander's program, the VFW believes that some military commanders still fail to take TAP seriously. In our visits to transition sites, this is not as much of an issue for mid-career service members or retirees. However, it has a direct impact on the transition of first-term enlisted service members, who likely need the training the most.''    My question is more oriented towards asking you, any of you, to share your observations on how we can make the TAP program more effective, given what you have identified as, at least your concerns, and maybe the challenges on how to make it more effective.</t>
   </si>
   <si>
@@ -214,6 +250,12 @@
     <t>412647</t>
   </si>
   <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Rice. Thank you, Mr. Chairman.    So I recently met with a group of veteran service organizations back in my district, back on Long Island and they raised a number of issues and I just want to see if these are things that you have experienced either at your school or in servicing the veterans who come to ask you for help.    The entitlement period that you can access these benefits, is that--it is my understanding that that is a 36-month entitlement period that they have to use the benefits during that time. Is there any way to extend that--I guess I will ask this to you, Mr. Harrison--in terms of--or whoever else thinks they might be able to do that--to take into consideration all the other, whether they are working part-time or full-time supporting their families, the levels of stress?</t>
   </si>
   <si>
@@ -280,6 +322,9 @@
     <t xml:space="preserve">    Dr. Wenstrup. Ms. Radewagen, you are recognized for five minutes.</t>
   </si>
   <si>
+    <t>Radewagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Radewagen. Thank you, Mr. Chairman.    I, too, want to thank all of you for being with us here today. My question is for all of you: Can you please discuss the most common barriers to success that student veterans encounter and what can be done to help students overcome these student barriers, especially those student veterans living in remote areas such as American Samoa, attending a local community college.    We don't have a local VA benefits counselor that can help them navigate these barriers. A benefit counselor comes from Hawaii maybe once a month or every couple months, depending on their availability, to help our veterans answer benefits questions. That is not adequate support for our veterans who are geographically and economically isolated and who live 2500 miles due south of Hawaii.</t>
   </si>
   <si>
@@ -313,6 +358,12 @@
     <t>412318</t>
   </si>
   <si>
+    <t>Titus</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you. Thank you all for being here. I am a long-time professor at UNLV, and often have veterans in my classes, and appreciate what they bring to that setting, and to the university.    I know at last Congress we addressed the question of out-of-state tuition. Some of the states already allowed veterans to pay in-state tuition and then that made it nationally, but if we didn't include those from Samoa, we should certainly go back and take a look at that.    Also I was just going to say that I completely agree with the Ranking Member's concern about taking remedial courses and being brought up to speed so that you can succeed once you start taking the regular course work or whatever major you choose.    One of things that has been pointed out to me is the problem with the housing benefit. If you go to college and start your housing benefit when you are taking the remedial course, it will run out before you finish taking the whole degree program, so we ought to look at that benefit as it connects with the GI Bill and I look forward to working with you on that. We have had several conversations about that.    Another thing is the Student Veterans Association at UNLV is a great resource, I work with them often. And one of the things that they brought to my attention is the problem with the need for childcare, especially women veterans going back to school and do not have any access to childcare. Many universities do not provide it on the campus, and the GI Bill does not give you any benefit.    So I am trying to look for ways that we can perhaps do some benefit for childcare while you are in school. And I wondered if you all would work with me on that, if you have any suggestions, if you think that this is a worthwhile way to go, if you have heard about yourselves on your campuses. We can start with Mr. Neiweem and whoever might want to weigh in, I would appreciate it.</t>
   </si>
   <si>
@@ -340,6 +391,9 @@
     <t xml:space="preserve">    Dr. Wenstrup. Thank you. I want to thank you all for being here today, not only for the information that you brought, but the information that you shared with us in responding to our questions. Your dedication to our veterans, of course, is greatly appreciated.    We will excuse this panel at this time. We have been called to vote, so for the second panel, General Worley, we will come back in probably about 35 minutes or so, and resume. Again I want to thank you all for being here today with us.    I now invite our second and final panel to the witness table. Joining us Major General Robert Worley, director of VA's education service. I want to thank you for being with us today, I really do. And for many years of service in uniform in the Air Force. And I look forward to hearing from you. You are now recognized for five minutes.</t>
   </si>
   <si>
+    <t>Worley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Worley. Good afternoon, Chairman Wenstrup, Ranking Member Takano, and other distinguished Members of the subcommittee.    I am pleased to be here today to discuss the Department of Veterans Affairs education benefit programs and our ongoing efforts to ensure education benefits are administered appropriately and accurately.    My testimony will highlight the status of our implementation of the President's Executive Order, 13607, Public Law 112-249, and Sections 701 and 702 of the Choice Act. I will also touch on VA's information technology systems supporting our education programs.    VA's education programs provide education and training benefits to eligible Service members, Veterans, dependents, and survivors. These programs are designed to assist Veterans in readjusting to civilian life, to help the armed forces both recruit and retain members, and enhance the nation's economic competitiveness.    The Post-9/11 GI Bill, or Chapter 33, greatly expanded education benefits with the enactment of Public Law 110-252, effective August 1st, 2009. This program provides Veterans, Service members, dependents, and survivors with educational assistance in the form of tuition and fees, a housing allowance, and a books and supplies stipend to assist them in reaching their educational and vocational goals. The Post-9/11 GI Bill is by far the most utilized of VA's education programs.    Since the program began, VA has issued approximately $50 billion in benefits to 1.4 million individuals and their educational institutions. The other education benefit programs VA administers have been fairly consistent or have experienced reductions in recent years as measured by numbers of trainees and dollars issued.    The Executive Order on Principles of Excellence and Public Law 112-249 on improving transparency of educational opportunities were both intended to strengthen oversight, enforcement, and accountability within the Veteran and military educational benefit programs, as well as improve outreach and transparency to Veterans and Service members by providing information on educational institutions.    These important efforts were implemented through a strong and effective inter-agency collaboration between VA, the Department of Defense, and the Department of Education, in consultation with the Department of Justice, the Consumer Financial Protection Bureau, and the National Association of State Approving Agencies. Over 6,100 campuses have voluntarily agreed to comply with the Principles of Excellence.    Much has been accomplished through this work to both better inform and better protect Veterans and family members using educational benefits including: Registering as a Trademark the term ``GI Bill;'' development of a financial aid shopping sheet; development of Veteran outcome measures, and implementation of a centralized complaint system.    Further, as a result of these efforts, VA launched an online vocational and academic assessment tool called Career Scope, as well as the GI Bill Comparison Tool, which enables prospective students to compare educational institutions using key measures of affordability and value through access to school performance information and consumer protection information. As of March 4th, 2015, there have been over 846,000 unique visitors and over one million page views.    Section 701 of the Choice Act expands the Fry Scholarship to include surviving spouses of service members who died in the line of duty on or after September 11th, of 2001. VA began accepting applications for this extended benefit on November 3rd, of 2014, and as of March 2nd, VA has received 805 applications.    Section 702 of the Choice Act requires VA to disapprove educational programs under the Post-9/11 GI Bill and the Montgomery GI Bill Active Duty at public institutions if they charge covered individuals tuition or fees in excess of resident rates for terms beginning after July 1, 2015. In late October 2014, VA sent a letter to all the Governors outlining these requirements and requesting information on the state's ability to meet requirements in advance of July 1st.    All states and territories have indicated a commitment to comply with the law and are in various stages of either legislative or policy development and approval. VA has provided extensive technical assistance to numerous states and is working in close partnership with the state approving agencies to facilitate timely compliance with this law.    The Long-Term Solution is the Post-9/11 GI Bill Claims Processing Solution. In September 2012, VA implemented end-to-end automation of supplemental Post-9/11 GI Bill Claims. This was a game changer. In Fiscal Year 2014, 51 percent of all Post-9/11 GI Bill supplemental claims were fully automated and another 30 percent were partially automated. As a result, original claims processing timeliness has improved from 30.5 days in Fiscal Year 2012 to 17 days in Fiscal Year 2014. And supplemental processing timeliness has improved from 16.5 days to six days in 2014.    Veterans' hard earned educational benefits are the vehicle by which many of our nation's heroes pursue their career goals and successfully transition to civilian life. VA is fully committed to ensuring timely access and delivery of these benefits and to ensuring Veterans are well-informed decision makers concerning the use of these benefits.    Mr. Chairman, this concludes my statement, and I look forward to your questions.    [The prepared statement of Robert Worley appears in the Appendix]</t>
   </si>
   <si>
@@ -394,6 +448,9 @@
     <t xml:space="preserve">    Mr. Worley. That is my understanding.</t>
   </si>
   <si>
+    <t>Wenstrup [contuning]</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup [contuning]. That would make a difference for them. Now, what plans does the VA have in place to finish the Long-Term Solution and finally get all original claims fully automated? How is that going at this point, do you think?</t>
   </si>
   <si>
@@ -416,6 +473,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Takano. It says when will you begin risk----</t>
+  </si>
+  <si>
+    <t>Takano [contuning]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Takano [contuning]. Based program reviews?</t>
@@ -848,7 +908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,7 +916,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,3533 +938,4125 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G62" t="s">
+        <v>78</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G64" t="s">
+        <v>78</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>102</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>102</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>102</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G84" t="s">
+        <v>114</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G89" t="s">
+        <v>114</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G91" t="s">
+        <v>114</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>125</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>125</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>125</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>125</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s">
+        <v>125</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>125</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>125</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>144</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>125</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
       <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>125</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
       <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>125</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
       <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s">
+        <v>125</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>153</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s">
+        <v>125</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
       <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s">
+        <v>125</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
       <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G126" t="s">
+        <v>125</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
       <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s">
+        <v>125</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
       <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s">
+        <v>125</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G133" t="s">
+        <v>125</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>125</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>125</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>125</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s">
+        <v>125</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s">
+        <v>125</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
       <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>125</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
       <c r="H147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>161</v>
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98573.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98573.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wenstrup</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Takano</t>
   </si>
   <si>
@@ -224,6 +233,9 @@
   </si>
   <si>
     <t>412651</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Costello</t>
@@ -908,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +928,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,4122 +953,4420 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H68" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>36</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H72" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>102</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>106</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>36</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>102</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>36</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>102</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>106</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>24</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>102</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>106</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G84" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="H84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>36</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>36</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G89" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>30</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G91" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>125</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>129</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s">
-        <v>125</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>129</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>125</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>129</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>125</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>129</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>125</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>129</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>125</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>129</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>125</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>129</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>125</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>129</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>125</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>129</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>125</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>129</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>144</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>148</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>125</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>129</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G115" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I115" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s">
-        <v>125</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>129</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I117" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s">
-        <v>125</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>129</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I119" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s">
-        <v>125</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>129</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s">
-        <v>153</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>157</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s">
-        <v>125</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>129</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I123" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s">
-        <v>125</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>129</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I125" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s">
-        <v>125</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>129</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I127" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" t="s">
-        <v>125</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>129</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s">
-        <v>125</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>129</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s">
-        <v>125</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>129</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s">
-        <v>125</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>129</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" t="s">
-        <v>125</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>129</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" t="s">
-        <v>125</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>129</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s">
-        <v>125</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>129</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
-      </c>
-      <c r="G143" t="s">
-        <v>125</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>129</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I145" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s">
-        <v>125</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>129</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G147" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H147" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I147" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>181</v>
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
